--- a/similarities/split_global/harmonic_similarity_timestamps_300.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,342 +484,358 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:14.565283', '0:00:18.936988'), ('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:09.060000', '0:01:12.500000'), ('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=14.565283', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:maj/B', 'E:min/B', 'B:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+          <t>('0:02:02.570000', '0:02:04.490000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
+          <t>('0:00:05.520000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=122.57</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=5.52</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+          <t>('0:01:20.160000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:01:45.200000', '0:01:52.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=72.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=105.2</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['C', 'G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['F', 'C', 'F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:50.340000', '0:00:52.940000'), ('0:01:48.980000', '0:02:02.260000')]</t>
+          <t>('0:02:46.638000', '0:02:52.115000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:03:00.060000', '0:03:02.260000'), ('0:00:22.660000', '0:00:29.320000')]</t>
+          <t>('0:00:18.071496', '0:00:27.510408')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=50.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=108.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=166.638</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=180.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_30</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+          <t>('0:00:01.340000', '0:00:08.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-30#t=24.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=1.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=54.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:21.780000', '0:00:31.740000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:00:13.720000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:00:42.140000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -829,369 +845,385 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab:7', 'Db']]</t>
+          <t>['Db', 'Gb:7', 'Db', 'Gb:7', 'Db']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['Bb', 'Eb:7', 'Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:59.730000', '0:01:03.930000')]</t>
+          <t>('0:00:45.540000', '0:00:55.490000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:47.420000', '0:00:49.320000')]</t>
+          <t>('0:01:18.347000', '0:01:23.598000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=45.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=47.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=78.347</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D/b7', 'G/3', 'D', 'G', 'D/3']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.320000', '0:00:14.760000')]</t>
+          <t>('0:00:43.880000', '0:00:57.580000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:23.703945', '0:00:29.172244')]</t>
+          <t>('0:00:27.280000', '0:00:57.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=27.28</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min'], ['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'G:7', 'C:min', 'C:min/G', 'G:7']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:32.220000', '0:00:43.900000'), ('0:00:38.120000', '0:00:47.080000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:53.720000', '0:02:10.980000'), ('0:00:14.420000', '0:00:50.340000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=32.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=38.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=113.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=14.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'C:maj', 'G/3']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'C', 'G']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:12.543000', '0:01:21.910000')]</t>
+          <t>('0:01:03.380000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.151020', '0:00:21.828299')]</t>
+          <t>('0:01:11.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=72.543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=16.15102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=71.64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E/4'], ['E/4', 'D/5', 'A']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3'], ['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48.277000', '0:00:54.481000'), ('0:00:09.172000', '0:00:14.409000')]</t>
+          <t>('0:01:58.400000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:26.006000', '0:00:29.321000'), ('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:03.599751', '0:00:08.760294')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=9.172']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:27.510727'), ('0:02:24.085784', '0:02:29.240614')]</t>
+          <t>('0:00:32.200000', '0:00:38.620000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:37.160000', '0:02:40.380000'), ('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:40.640000', '0:00:44.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['E:7/A', 'A:min', 'D:min/A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:00:25.260000', '0:00:33.600000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000'), ('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
